--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -555,11 +555,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -616,20 +616,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -662,12 +662,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -677,17 +677,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -723,12 +723,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -799,7 +799,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -809,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -860,11 +860,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -882,10 +882,10 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -982,17 +982,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1059,16 +1059,16 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1104,11 +1104,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1165,32 +1165,32 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1297,7 +1297,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Troy Henderson</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6:49 - 1st Half</t>
+          <t>3:51 - 1st Half</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1790,7 +1790,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1812,7 +1812,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1838,27 +1838,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -677,11 +677,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -738,11 +738,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="n">
         <v>14</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -799,11 +799,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" t="n">
         <v>24</v>
@@ -860,17 +860,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
         <v>5</v>
       </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -982,7 +982,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1104,11 +1104,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I11" t="n">
         <v>7</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1165,11 +1165,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
         <v>5</v>
@@ -1226,11 +1226,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>7</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1724,7 +1724,7 @@
         <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -1775,17 +1775,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
         <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1794,13 +1794,13 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1846,7 +1846,7 @@
         <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -2019,11 +2019,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2202,20 +2202,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -2324,18 +2324,18 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>3</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
       <c r="K31" t="n">
         <v>1</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2446,17 +2446,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I33" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2568,11 +2568,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2919,26 +2919,26 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
         <v>5</v>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Andrija Jelavić</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2995,17 +2995,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -3041,35 +3041,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -3224,22 +3224,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -3249,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -3285,12 +3285,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3300,20 +3300,20 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12:04 - 1st Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3422,17 +3422,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -3468,22 +3468,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>13:25 - 2nd Half</t>
+          <t>11:02 - 1st Half</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -677,14 +677,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -784,12 +784,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -799,17 +799,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:34 - 1st Half</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -845,12 +845,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -860,11 +860,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:34 - 1st Half</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -982,14 +982,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
@@ -1007,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1150,35 +1150,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -1211,35 +1211,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -1409,23 +1409,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15:34 - 1st Half</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1714,17 +1714,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
         <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1739,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -1760,47 +1760,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1836,14 +1836,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15:34 - 1st Half</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1943,47 +1943,47 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15:34 - 1st Half</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -2202,17 +2202,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15:34 - 1st Half</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2221,13 +2221,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2385,17 +2385,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>11</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -2507,17 +2507,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K34" t="n">
         <v>2</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15:34 - 1st Half</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I37" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O37" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -2934,11 +2934,11 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I41" t="n">
         <v>15</v>
@@ -2947,7 +2947,7 @@
         <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -3056,20 +3056,20 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15:34 - 1st Half</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
         <v>3</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -3117,14 +3117,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J44" t="n">
         <v>3</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -3239,11 +3239,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I46" t="n">
         <v>9</v>
@@ -3258,13 +3258,13 @@
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -3285,47 +3285,47 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3365,28 +3365,28 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -3407,47 +3407,47 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H49" t="n">
+        <v>10</v>
+      </c>
+      <c r="I49" t="n">
         <v>8</v>
       </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3483,32 +3483,32 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
@@ -3529,47 +3529,47 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Andrija Jelavić</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3609,13 +3609,13 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -3651,12 +3651,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3670,16 +3670,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -3712,35 +3712,35 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -3773,47 +3773,47 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -3834,35 +3834,35 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15:34 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3871,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -3895,35 +3895,35 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15:34 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3932,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
@@ -3956,32 +3956,32 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>1</v>
@@ -3993,10 +3993,10 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -4017,47 +4017,47 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>14:16 - 2nd Half</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -4078,35 +4078,35 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -4139,26 +4139,26 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Alex Kovatchev</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4176,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4200,32 +4200,32 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:46 - 1st Half</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -4234,13 +4234,13 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -4261,35 +4261,35 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Kam Williams</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15:34 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -4298,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O63" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -4322,26 +4322,26 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -4359,10 +4359,10 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -4383,46 +4383,473 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Shawn Phillips Jr.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>7:46 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>7:46 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Mazi Mosley</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>7:46 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>Troy Henderson</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>TENN</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>UK@TENN</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H65" t="n">
+      <c r="H72" t="n">
         <v>-2</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4474,7 +4901,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -4500,7 +4927,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -4513,7 +4940,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -4526,7 +4953,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -4535,27 +4962,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,17 +677,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -784,47 +784,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>8:13 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -845,35 +845,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>8:13 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -896,57 +896,57 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -957,45 +957,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1047,16 +1047,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1084,22 +1084,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1108,28 +1108,28 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1145,52 +1145,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:13 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1206,40 +1206,40 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>8:13 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1262,57 +1262,57 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -1323,27 +1323,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" t="n">
         <v>5</v>
       </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -1384,57 +1384,57 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1474,28 +1474,28 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1511,22 +1511,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,28 +1535,28 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1599,25 +1599,25 @@
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -1633,52 +1633,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -1689,57 +1689,57 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
         <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -1750,57 +1750,57 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1811,45 +1811,45 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1872,27 +1872,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1901,28 +1901,28 @@
         </is>
       </c>
       <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>3</v>
       </c>
-      <c r="I24" t="n">
-        <v>12</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2</v>
-      </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1943,38 +1943,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1999,22 +1999,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2023,28 +2023,28 @@
         </is>
       </c>
       <c r="H26" t="n">
+        <v>15</v>
+      </c>
+      <c r="I26" t="n">
         <v>16</v>
       </c>
-      <c r="I26" t="n">
-        <v>12</v>
-      </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -2060,52 +2060,52 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -2121,22 +2121,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2145,19 +2145,19 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -2182,52 +2182,52 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -2238,22 +2238,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2267,28 +2267,28 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -2299,22 +2299,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I31" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -2360,45 +2360,45 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -2421,57 +2421,57 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2492,35 +2492,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>8:13 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="I34" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2548,22 +2548,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2572,19 +2572,19 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I35" t="n">
+        <v>21</v>
+      </c>
+      <c r="J35" t="n">
         <v>4</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -2609,52 +2609,52 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2675,12 +2675,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2690,32 +2690,32 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I37" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2736,17 +2736,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2758,7 +2758,7 @@
         <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
         <v>6</v>
@@ -2767,16 +2767,16 @@
         <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -2787,57 +2787,57 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:13 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="n">
         <v>10</v>
-      </c>
-      <c r="I39" t="n">
-        <v>10</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="40">
@@ -2848,27 +2848,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2877,28 +2877,28 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K40" t="n">
         <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -2909,57 +2909,57 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>8:13 - 1st Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
         <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -2970,27 +2970,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2999,28 +2999,28 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -3031,17 +3031,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3056,20 +3056,20 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -3092,22 +3092,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3117,32 +3117,32 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
+        <v>30</v>
+      </c>
+      <c r="I44" t="n">
+        <v>20</v>
+      </c>
+      <c r="J44" t="n">
         <v>10</v>
       </c>
-      <c r="I44" t="n">
-        <v>10</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>3</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O44" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -3153,27 +3153,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3182,28 +3182,28 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -3214,57 +3214,57 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>8:13 - 1st Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3285,35 +3285,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3346,29 +3346,29 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:13 - 1st Half</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
         <v>2</v>
@@ -3377,16 +3377,16 @@
         <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -3397,27 +3397,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3426,28 +3426,28 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -3458,17 +3458,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3483,32 +3483,32 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51">
@@ -3519,57 +3519,57 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
+        <v>14</v>
+      </c>
+      <c r="I51" t="n">
+        <v>14</v>
+      </c>
+      <c r="J51" t="n">
         <v>7</v>
       </c>
-      <c r="I51" t="n">
-        <v>2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4</v>
-      </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O51" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
@@ -3580,45 +3580,45 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3670,19 +3670,19 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3712,47 +3712,47 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>8:13 - 1st Half</t>
         </is>
       </c>
       <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="n">
         <v>4</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -3773,47 +3773,47 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I55" t="n">
+        <v>14</v>
+      </c>
+      <c r="J55" t="n">
         <v>4</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3853,16 +3853,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,19 +3914,19 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -3956,32 +3956,32 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
         <v>1</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -4017,47 +4017,47 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
         <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -4078,47 +4078,47 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
         <v>3</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -4139,38 +4139,38 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Alex Kovatchev</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>8:13 - 1st Half</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -4200,12 +4200,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4215,32 +4215,32 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -4261,35 +4261,35 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -4298,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -4322,38 +4322,38 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>9:08 - 2nd Half</t>
+          <t>8:13 - 1st Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -4383,17 +4383,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Andrija Jelavić</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4402,16 +4402,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -4420,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4459,23 +4459,23 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -4505,47 +4505,47 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:13 - 1st Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -4566,17 +4566,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4585,28 +4585,28 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4642,17 +4642,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -4688,12 +4688,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -4749,35 +4749,35 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>7:46 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4786,10 +4786,10 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O71" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
@@ -4810,46 +4810,1266 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>Malique Ewin</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ARK@UGA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>8:13 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>T.O. Barrett</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Dylan James</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ARK@UGA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>8:13 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Urban Klavzar</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>FLA@VAN</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Alex Kovatchev</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>FLA@VAN</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Justin Abson</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>ARK@UGA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>8:13 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Kam Williams</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Kareem Stagg</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>ARK@UGA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>8:13 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>FLA@VAN</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Rashad King</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Sebastian Mack</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Annor Boateng</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>D.J. Wagner</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ARK@UGA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>8:13 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>ARK@UGA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>8:13 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>Troy Henderson</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>TENN</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>UK@TENN</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H72" t="n">
+      <c r="H91" t="n">
         <v>-2</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Mazi Mosley</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4901,7 +6121,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -4914,10 +6134,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4927,46 +6147,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -4975,14 +6195,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,7 +799,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -860,14 +860,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -921,17 +921,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -982,20 +982,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1165,11 +1165,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>6</v>
@@ -1184,13 +1184,13 @@
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>3</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1653,17 +1653,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I25" t="n">
         <v>19</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -2044,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -2080,17 +2080,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2532,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -2812,32 +2812,32 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2995,11 +2995,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -3239,17 +3239,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -3371,22 +3371,22 @@
         <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
         <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -3605,14 +3605,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J52" t="n">
         <v>3</v>
@@ -3630,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -4139,47 +4139,47 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I61" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -4200,47 +4200,47 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>10</v>
       </c>
       <c r="I62" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4337,32 +4337,32 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -4383,47 +4383,47 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H65" t="n">
         <v>6</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -4444,32 +4444,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -4478,13 +4478,13 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4520,32 +4520,32 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
         <v>4</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -4566,38 +4566,38 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Andrija Jelavić</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -4627,26 +4627,26 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I69" t="n">
         <v>2</v>
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4703,32 +4703,32 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
         <v>3</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
       <c r="O70" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -4749,32 +4749,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -4783,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -4932,47 +4932,47 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H74" t="n">
         <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -5054,35 +5054,35 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Kam Williams</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -5091,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -5115,35 +5115,35 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -5176,22 +5176,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -5274,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -5298,22 +5298,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -5335,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3:20 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -5847,22 +5847,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>16:20 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -5875,10 +5875,10 @@
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="O89" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -5908,22 +5908,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -5933,22 +5933,22 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
         <v>1</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
@@ -5969,46 +5969,107 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>Troy Henderson</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>Mazi Mosley</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>LSU</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>MIZ@LSU</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>16:20 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>11:54 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
         <v>-3</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6060,7 +6121,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -6073,7 +6134,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -6086,7 +6147,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -6099,7 +6160,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -6125,7 +6186,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -6138,7 +6199,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -434,7 +434,7 @@
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -799,32 +799,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -845,47 +845,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -906,47 +906,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -982,17 +982,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -1226,11 +1226,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -1577,17 +1577,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1596,28 +1596,28 @@
         </is>
       </c>
       <c r="H19" t="n">
+        <v>12</v>
+      </c>
+      <c r="I19" t="n">
+        <v>13</v>
+      </c>
+      <c r="J19" t="n">
         <v>5</v>
       </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -1638,35 +1638,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I25" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -2004,17 +2004,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -2065,35 +2065,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2102,10 +2102,10 @@
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2471,7 +2471,7 @@
         <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -2507,14 +2507,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2532,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -2675,47 +2675,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>14</v>
       </c>
       <c r="I37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
         <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O37" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -2736,17 +2736,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2755,28 +2755,28 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J38" t="n">
         <v>6</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -2797,47 +2797,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I39" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -2995,32 +2995,32 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
         <v>4</v>
       </c>
-      <c r="J42" t="n">
-        <v>3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3</v>
-      </c>
       <c r="N42" t="n">
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -3239,17 +3239,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -3261,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -3285,47 +3285,47 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -3346,35 +3346,35 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
@@ -3383,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
@@ -3605,14 +3605,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I52" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J52" t="n">
         <v>3</v>
@@ -3630,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
@@ -3727,17 +3727,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3971,32 +3971,32 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H58" t="n">
+        <v>12</v>
+      </c>
+      <c r="I58" t="n">
         <v>13</v>
       </c>
-      <c r="I58" t="n">
-        <v>11</v>
-      </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O58" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -4017,17 +4017,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4039,25 +4039,25 @@
         <v>12</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
@@ -4078,17 +4078,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4097,28 +4097,28 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I60" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4158,28 +4158,28 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J61" t="n">
         <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -4200,29 +4200,29 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I62" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J62" t="n">
         <v>2</v>
@@ -4231,16 +4231,16 @@
         <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
         <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
@@ -4261,47 +4261,47 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I63" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -4322,32 +4322,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -4356,13 +4356,13 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4398,32 +4398,32 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
         <v>7</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
@@ -4444,47 +4444,47 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I66" t="n">
+        <v>11</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5</v>
+      </c>
+      <c r="K66" t="n">
         <v>4</v>
       </c>
-      <c r="J66" t="n">
-        <v>3</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O66" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -4505,47 +4505,47 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -4566,17 +4566,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4585,28 +4585,28 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -4627,12 +4627,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4642,32 +4642,32 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O69" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -4688,12 +4688,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4703,20 +4703,20 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L70" t="n">
         <v>1</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Andrija Jelavić</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4768,13 +4768,13 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -4810,12 +4810,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4829,16 +4829,16 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4847,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -4871,47 +4871,47 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
         <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -4947,14 +4947,14 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>2</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
@@ -4993,17 +4993,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5012,16 +5012,16 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -5054,12 +5054,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5073,13 +5073,13 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -5094,7 +5094,7 @@
         <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
@@ -5115,35 +5115,35 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Kam Williams</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5198,13 +5198,13 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -5213,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O78" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -5237,22 +5237,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -5274,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -5298,22 +5298,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -5359,22 +5359,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -5396,10 +5396,10 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -5420,7 +5420,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5435,11 +5435,11 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -5481,26 +5481,26 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -5542,17 +5542,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5579,10 +5579,10 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -5603,12 +5603,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -5631,19 +5631,19 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -5664,17 +5664,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Ethan Burg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5686,10 +5686,10 @@
         <v>-1</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -5698,13 +5698,13 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -5725,22 +5725,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>9:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -5762,10 +5762,10 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -5786,17 +5786,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5808,10 +5808,10 @@
         <v>-1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -5820,13 +5820,13 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -5847,32 +5847,32 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
         <v>4</v>
@@ -5908,38 +5908,38 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -5948,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>11:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -6134,7 +6134,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -6143,27 +6143,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6186,7 +6186,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -6199,7 +6199,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -799,7 +799,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -921,14 +921,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2507,17 +2507,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -2568,14 +2568,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J35" t="n">
         <v>6</v>
@@ -2593,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -3264,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -3300,14 +3300,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I47" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J47" t="n">
         <v>3</v>
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
@@ -3727,17 +3727,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I54" t="n">
         <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -4423,7 +4423,7 @@
         <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -4810,30 +4810,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H72" t="n">
+        <v>5</v>
+      </c>
+      <c r="I72" t="n">
         <v>4</v>
       </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
       <c r="J72" t="n">
         <v>2</v>
       </c>
@@ -4844,13 +4844,13 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -4886,18 +4886,18 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H73" t="n">
+        <v>5</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
         <v>4</v>
       </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3</v>
-      </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -4932,32 +4932,32 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -4966,13 +4966,13 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -4993,47 +4993,47 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5076,13 +5076,13 @@
         <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -5091,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -5115,47 +5115,47 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H77" t="n">
         <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O77" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>8:04 - 2nd Half</t>
+          <t>3:28 - 2nd Half</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -6160,7 +6160,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,9 +431,9 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
@@ -718,52 +718,52 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:11 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -779,52 +779,52 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>9:11 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -845,17 +845,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -864,28 +864,28 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -921,32 +921,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -967,17 +967,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -986,28 +986,28 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
+        <v>12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1018,27 +1018,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1047,28 +1047,28 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1079,27 +1079,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1108,13 +1108,13 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -1140,42 +1140,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>9:11 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1211,47 +1211,47 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
+        <v>22</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1267,22 +1267,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1294,25 +1294,25 @@
         <v>21</v>
       </c>
       <c r="I14" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -1328,22 +1328,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -1389,22 +1389,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -1450,37 +1450,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1489,13 +1489,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1506,27 +1506,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,22 +1535,22 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1567,27 +1567,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1596,28 +1596,28 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -1628,45 +1628,45 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1699,17 +1699,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1718,28 +1718,28 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1779,28 +1779,28 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
         <v>5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1816,22 +1816,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1840,28 +1840,28 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
         <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1877,22 +1877,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1901,28 +1901,28 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1962,28 +1962,28 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2004,32 +2004,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="I26" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2038,13 +2038,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -2055,27 +2055,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2084,28 +2084,28 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I27" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -2116,27 +2116,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2145,28 +2145,28 @@
         </is>
       </c>
       <c r="H28" t="n">
+        <v>12</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
         <v>4</v>
       </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -2177,27 +2177,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2206,28 +2206,28 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
         <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2267,28 +2267,28 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2304,22 +2304,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -2365,22 +2365,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
@@ -2426,22 +2426,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2450,28 +2450,28 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -2487,52 +2487,52 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
+        <v>7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>3</v>
       </c>
-      <c r="J34" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2553,47 +2553,47 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -2604,22 +2604,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -2665,22 +2665,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2694,28 +2694,28 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -2726,27 +2726,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2755,16 +2755,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
@@ -2787,27 +2787,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2816,28 +2816,28 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
         <v>3</v>
       </c>
-      <c r="J39" t="n">
-        <v>6</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
       <c r="O39" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2858,35 +2858,35 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2919,17 +2919,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2938,16 +2938,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -2975,17 +2975,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2995,32 +2995,32 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I42" t="n">
+        <v>20</v>
+      </c>
+      <c r="J42" t="n">
         <v>6</v>
       </c>
-      <c r="J42" t="n">
-        <v>5</v>
-      </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>4</v>
       </c>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
       <c r="O42" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
@@ -3036,22 +3036,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3060,19 +3060,19 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I43" t="n">
+        <v>21</v>
+      </c>
+      <c r="J43" t="n">
         <v>4</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3121,28 +3121,28 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I44" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J44" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" t="n">
         <v>3</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3182,28 +3182,28 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J45" t="n">
         <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3224,44 +3224,44 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>22</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3285,47 +3285,47 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
+        <v>22</v>
+      </c>
+      <c r="I47" t="n">
         <v>20</v>
       </c>
-      <c r="I47" t="n">
-        <v>16</v>
-      </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3365,28 +3365,28 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -3397,27 +3397,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3426,28 +3426,28 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I49" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
@@ -3458,27 +3458,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3487,28 +3487,28 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -3519,57 +3519,57 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:11 - 1st Half</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
         <v>7</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>3</v>
-      </c>
-      <c r="O51" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="52">
@@ -3580,45 +3580,45 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -3641,22 +3641,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3670,28 +3670,28 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I53" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O53" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -3702,57 +3702,57 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54" t="n">
         <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -3763,27 +3763,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3792,28 +3792,28 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O55" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -3824,45 +3824,45 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:11 - 1st Half</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,28 +3914,28 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I57" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3956,17 +3956,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3975,28 +3975,28 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I58" t="n">
         <v>10</v>
       </c>
       <c r="J58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4017,47 +4017,47 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4078,47 +4078,47 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:11 - 1st Half</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -4129,27 +4129,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4158,13 +4158,13 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I61" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K61" t="n">
         <v>2</v>
@@ -4173,13 +4173,13 @@
         <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
         <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -4190,57 +4190,57 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I62" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
@@ -4251,57 +4251,57 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
         <v>3</v>
       </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>4</v>
-      </c>
       <c r="O63" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
@@ -4312,27 +4312,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4341,28 +4341,28 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J64" t="n">
         <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65">
@@ -4373,57 +4373,57 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>9:11 - 1st Half</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>5</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4444,17 +4444,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4463,28 +4463,28 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J66" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4524,28 +4524,28 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I67" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J67" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4566,38 +4566,38 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J68" t="n">
         <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4627,47 +4627,47 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:11 - 1st Half</t>
         </is>
       </c>
       <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
         <v>7</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>2</v>
-      </c>
-      <c r="O69" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4688,47 +4688,47 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4749,47 +4749,47 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="I71" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -4810,47 +4810,47 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I72" t="n">
+        <v>14</v>
+      </c>
+      <c r="J72" t="n">
         <v>4</v>
       </c>
-      <c r="J72" t="n">
-        <v>2</v>
-      </c>
       <c r="K72" t="n">
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -4871,47 +4871,47 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
         <v>4</v>
       </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4951,28 +4951,28 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O74" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -4993,12 +4993,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5008,32 +5008,32 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H75" t="n">
+        <v>15</v>
+      </c>
+      <c r="I75" t="n">
+        <v>15</v>
+      </c>
+      <c r="J75" t="n">
         <v>4</v>
       </c>
-      <c r="I75" t="n">
-        <v>4</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O75" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
@@ -5054,17 +5054,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5073,28 +5073,28 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
@@ -5115,17 +5115,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5134,28 +5134,28 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5195,19 +5195,19 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I78" t="n">
+        <v>9</v>
+      </c>
+      <c r="J78" t="n">
         <v>3</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5256,13 +5256,13 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -5274,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -5298,47 +5298,47 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,19 +5378,19 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5439,13 +5439,13 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -5454,13 +5454,13 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -5481,32 +5481,32 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -5515,13 +5515,13 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -5542,17 +5542,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5561,19 +5561,19 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -5603,12 +5603,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5622,28 +5622,28 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
@@ -5664,17 +5664,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5683,28 +5683,28 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O86" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
@@ -5725,47 +5725,47 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>3:28 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O87" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -5786,17 +5786,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -5847,12 +5847,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5866,28 +5866,28 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Andrija Jelavić</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5927,16 +5927,16 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -5945,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
@@ -5969,17 +5969,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5988,28 +5988,28 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -6030,46 +6030,2242 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Ali Dibba</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TEX</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>9:11 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>D.J. Wagner</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ARK@UGA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+      <c r="I94" t="n">
+        <v>4</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Elijah Strong</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>SC@AUB</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>6:08 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Jamie Vinson</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TEX</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>9:11 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Lassina Traore</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TEX</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>9:11 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Sebastian Williams-Adams</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>SC@AUB</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>6:08 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2</v>
+      </c>
+      <c r="O98" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Zach Clemence</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TEX</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>9:11 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Amaree Abram</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Bishop Boswell</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2</v>
+      </c>
+      <c r="O101" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Camden Heide</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TEX</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>9:11 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>SC@AUB</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>6:08 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TEX</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>9:11 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Urban Klavzar</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>FLA@VAN</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Blake Muschalek</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>SC@AUB</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>6:08 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Christ Essandoko</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>SC@AUB</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>6:08 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>EJ Walker</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>SC@AUB</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>6:08 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Hayden Assemian</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>SC@AUB</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>6:08 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Kam Williams</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2</v>
+      </c>
+      <c r="O110" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Kareem Stagg</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ARK@UGA</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>FLA@VAN</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Sebastian Mack</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Simon Walker</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>SC@AUB</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>6:08 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+      <c r="O115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Annor Boateng</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TEX</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>9:11 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>ARK@UGA</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+      <c r="O123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Pop Isaacs</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TEX</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>9:11 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+      <c r="O124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Simeon Wilcher</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TEX</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>9:11 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Troy Henderson</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Chendall Weaver</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TEX</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>9:11 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+      <c r="O127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>Mazi Mosley</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>LSU</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>MIZ@LSU</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
         <v>-3</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
         <v>8</v>
       </c>
     </row>
@@ -6134,10 +8330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6160,10 +8356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6173,10 +8369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -6186,10 +8382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -6199,10 +8395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -662,33 +662,33 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
         <v>7</v>
       </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -699,10 +699,10 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -723,32 +723,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -799,20 +799,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -1165,11 +1165,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1394,47 +1394,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1455,47 +1455,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -1653,17 +1653,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2797,47 +2797,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O39" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -2858,47 +2858,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
@@ -3529,38 +3529,38 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -3590,32 +3590,32 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -3773,47 +3773,47 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -3834,35 +3834,35 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3871,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
@@ -4032,32 +4032,32 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
         <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -4398,17 +4398,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -4581,14 +4581,14 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J68" t="n">
         <v>2</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -4627,35 +4627,35 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -4688,35 +4688,35 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -4764,14 +4764,14 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H71" t="n">
         <v>-1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -5115,47 +5115,47 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H77" t="n">
         <v>12</v>
       </c>
       <c r="I77" t="n">
+        <v>13</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
         <v>10</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="n">
-        <v>1</v>
-      </c>
-      <c r="O77" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5198,25 +5198,25 @@
         <v>12</v>
       </c>
       <c r="I78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5265,10 +5265,10 @@
         <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5317,28 +5317,28 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I80" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5381,25 +5381,25 @@
         <v>11</v>
       </c>
       <c r="I81" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5439,28 +5439,28 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I82" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -5481,32 +5481,32 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H83" t="n">
         <v>10</v>
       </c>
       <c r="I83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -5969,32 +5969,32 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H91" t="n">
         <v>5</v>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -6003,13 +6003,13 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -6030,38 +6030,38 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H92" t="n">
+        <v>5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>7</v>
+      </c>
+      <c r="J92" t="n">
         <v>4</v>
       </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2</v>
-      </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
@@ -6091,32 +6091,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I93" t="n">
         <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -6125,13 +6125,13 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -6152,17 +6152,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6171,28 +6171,28 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6228,32 +6228,32 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
         <v>3</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O95" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96">
@@ -6274,47 +6274,47 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H96" t="n">
         <v>3</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
@@ -6335,38 +6335,38 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H97" t="n">
         <v>3</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -6396,47 +6396,47 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H98" t="n">
         <v>3</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -6457,12 +6457,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6472,23 +6472,23 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H99" t="n">
         <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
@@ -6518,29 +6518,29 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H100" t="n">
         <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -6555,10 +6555,10 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6601,13 +6601,13 @@
         <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -6616,10 +6616,10 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -6640,35 +6640,35 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -6677,10 +6677,10 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O102" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
@@ -6701,35 +6701,35 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -6777,20 +6777,20 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -6799,10 +6799,10 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O104" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
@@ -6823,26 +6823,26 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
         <v>3</v>
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -6899,11 +6899,11 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6960,17 +6960,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108">
@@ -7006,35 +7006,35 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -7677,22 +7677,22 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -7714,10 +7714,10 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -7738,17 +7738,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7760,25 +7760,25 @@
         <v>-1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
@@ -7799,17 +7799,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -7821,10 +7821,10 @@
         <v>-1</v>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -7833,13 +7833,13 @@
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121" t="n">
         <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -7860,17 +7860,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -7897,10 +7897,10 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -7921,29 +7921,29 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Christ Essandoko</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -7958,10 +7958,10 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -7982,7 +7982,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -8019,10 +8019,10 @@
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -8068,10 +8068,10 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -8083,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>9:11 - 1st Half</t>
+          <t>3:39 - 1st Half</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -8330,7 +8330,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -8369,7 +8369,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O128"/>
+  <dimension ref="A1:O147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,8 +433,8 @@
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -540,17 +540,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -601,17 +601,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Labaron Philon Jr.</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -620,28 +620,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -677,18 +677,18 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>17</v>
+      </c>
+      <c r="I4" t="n">
         <v>14</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>9</v>
       </c>
-      <c r="J4" t="n">
-        <v>7</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -699,10 +699,10 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -723,17 +723,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -742,28 +742,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -799,20 +799,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -845,17 +845,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -864,28 +864,28 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -906,12 +906,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,28 +925,28 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
         <v>3</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>4</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3</v>
-      </c>
       <c r="O8" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -967,17 +967,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1001,13 +1001,13 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1028,17 +1028,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1047,28 +1047,28 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1108,28 +1108,28 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1150,38 +1150,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1201,27 +1201,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1230,28 +1230,28 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1291,28 +1291,28 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
         <v>8</v>
       </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I15" t="n">
+        <v>18</v>
+      </c>
+      <c r="J15" t="n">
         <v>8</v>
       </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1409,32 +1409,32 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
+        <v>17</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
         <v>6</v>
       </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1474,28 +1474,28 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -1511,22 +1511,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,28 +1535,28 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1577,12 +1577,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1596,28 +1596,28 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -1638,47 +1638,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -1699,17 +1699,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1718,28 +1718,28 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -1811,27 +1811,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1840,28 +1840,28 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -1872,27 +1872,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1901,28 +1901,28 @@
         </is>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>12</v>
       </c>
-      <c r="I24" t="n">
-        <v>13</v>
-      </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1933,27 +1933,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1962,28 +1962,28 @@
         </is>
       </c>
       <c r="H25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
         <v>5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2</v>
-      </c>
-      <c r="O25" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -2004,47 +2004,47 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>3</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -2060,22 +2060,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2084,28 +2084,28 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -2121,17 +2121,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2145,28 +2145,28 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -2182,22 +2182,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2206,14 +2206,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
         <v>4</v>
       </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -2248,17 +2248,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2267,19 +2267,19 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -2299,27 +2299,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I31" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -2360,27 +2360,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I32" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -2421,27 +2421,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2450,28 +2450,28 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -2482,27 +2482,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2514,25 +2514,25 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -2543,27 +2543,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2572,28 +2572,28 @@
         </is>
       </c>
       <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>3</v>
       </c>
-      <c r="I35" t="n">
-        <v>12</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2</v>
-      </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -2609,22 +2609,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J36" t="n">
         <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -2670,22 +2670,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2694,28 +2694,28 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
@@ -2731,22 +2731,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2755,28 +2755,28 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
@@ -2792,52 +2792,52 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -2853,22 +2853,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2880,7 +2880,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J40" t="n">
         <v>2</v>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -2898,7 +2898,7 @@
         <v>3</v>
       </c>
       <c r="O40" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -2919,17 +2919,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2938,28 +2938,28 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -2970,27 +2970,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2999,28 +2999,28 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I42" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -3031,27 +3031,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3060,28 +3060,28 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I43" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J43" t="n">
         <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
@@ -3092,27 +3092,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3121,28 +3121,28 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
@@ -3153,27 +3153,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3182,28 +3182,28 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>4</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
       <c r="O45" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
@@ -3214,27 +3214,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3243,28 +3243,28 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
         <v>3</v>
       </c>
-      <c r="J46" t="n">
-        <v>6</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>4</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
       <c r="O46" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3285,17 +3285,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3304,28 +3304,28 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
@@ -3341,22 +3341,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3365,28 +3365,28 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I48" t="n">
+        <v>20</v>
+      </c>
+      <c r="J48" t="n">
         <v>6</v>
       </c>
-      <c r="J48" t="n">
-        <v>8</v>
-      </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O48" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
@@ -3402,22 +3402,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3426,28 +3426,28 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
@@ -3463,22 +3463,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3487,28 +3487,28 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -3524,52 +3524,52 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
+        <v>14</v>
+      </c>
+      <c r="I51" t="n">
+        <v>15</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6</v>
+      </c>
+      <c r="K51" t="n">
         <v>4</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2</v>
-      </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -3585,52 +3585,52 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -3641,17 +3641,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3670,28 +3670,28 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I53" t="n">
         <v>20</v>
       </c>
       <c r="J53" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -3702,27 +3702,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3731,28 +3731,28 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -3763,57 +3763,57 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I55" t="n">
         <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
         <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -3824,17 +3824,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3853,28 +3853,28 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I56" t="n">
+        <v>6</v>
+      </c>
+      <c r="J56" t="n">
         <v>5</v>
       </c>
-      <c r="J56" t="n">
-        <v>3</v>
-      </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,28 +3914,28 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I57" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K57" t="n">
         <v>3</v>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3975,16 +3975,16 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
@@ -3993,10 +3993,10 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -4012,52 +4012,52 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I59" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" t="n">
+        <v>10</v>
+      </c>
+      <c r="K59" t="n">
         <v>3</v>
       </c>
-      <c r="J59" t="n">
-        <v>5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1</v>
-      </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O59" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -4073,52 +4073,52 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4158,28 +4158,28 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I61" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J61" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4200,17 +4200,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4219,28 +4219,28 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I62" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4261,17 +4261,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4280,19 +4280,19 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J63" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -4312,27 +4312,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4341,28 +4341,28 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I64" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
@@ -4373,57 +4373,57 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J65" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4444,17 +4444,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4463,28 +4463,28 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I66" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O66" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4505,12 +4505,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4524,28 +4524,28 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J67" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O67" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
@@ -4561,52 +4561,52 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I68" t="n">
+        <v>21</v>
+      </c>
+      <c r="J68" t="n">
         <v>9</v>
       </c>
-      <c r="J68" t="n">
-        <v>2</v>
-      </c>
       <c r="K68" t="n">
         <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -4622,52 +4622,52 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4703,20 +4703,20 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4764,32 +4764,32 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O71" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
@@ -4800,27 +4800,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4829,28 +4829,28 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I72" t="n">
         <v>14</v>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O72" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4890,28 +4890,28 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I73" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4951,28 +4951,28 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I74" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J74" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4993,17 +4993,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5012,28 +5012,28 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I75" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5054,17 +5054,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5073,28 +5073,28 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I76" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
         <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5130,32 +5130,32 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I77" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J77" t="n">
         <v>2</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5195,13 +5195,13 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I78" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -5210,13 +5210,13 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5256,28 +5256,28 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5317,28 +5317,28 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I80" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,28 +5378,28 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I81" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5439,28 +5439,28 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I82" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -5481,12 +5481,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5500,28 +5500,28 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I83" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -5542,12 +5542,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5561,25 +5561,25 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I84" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O84" t="n">
         <v>20</v>
@@ -5603,17 +5603,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5622,28 +5622,28 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J85" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86">
@@ -5664,17 +5664,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5683,19 +5683,19 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I86" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J86" t="n">
+        <v>4</v>
+      </c>
+      <c r="K86" t="n">
         <v>5</v>
       </c>
-      <c r="K86" t="n">
-        <v>4</v>
-      </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>5</v>
       </c>
       <c r="O86" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -5725,17 +5725,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5744,19 +5744,19 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>2</v>
       </c>
       <c r="O87" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
@@ -5786,17 +5786,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I88" t="n">
         <v>4</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -5847,17 +5847,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5866,28 +5866,28 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I89" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O89" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -5908,17 +5908,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5927,16 +5927,16 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -5945,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O90" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
@@ -5969,33 +5969,33 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H91" t="n">
+        <v>12</v>
+      </c>
+      <c r="I91" t="n">
+        <v>10</v>
+      </c>
+      <c r="J91" t="n">
         <v>5</v>
       </c>
-      <c r="I91" t="n">
-        <v>3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3</v>
-      </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
@@ -6003,13 +6003,13 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
@@ -6030,32 +6030,32 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I92" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93">
@@ -6091,17 +6091,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6110,28 +6110,28 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
@@ -6152,17 +6152,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6171,19 +6171,19 @@
         </is>
       </c>
       <c r="H94" t="n">
+        <v>11</v>
+      </c>
+      <c r="I94" t="n">
+        <v>8</v>
+      </c>
+      <c r="J94" t="n">
         <v>4</v>
       </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2</v>
-      </c>
       <c r="K94" t="n">
         <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
@@ -6213,35 +6213,35 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L95" t="n">
         <v>1</v>
@@ -6250,10 +6250,10 @@
         <v>2</v>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -6274,12 +6274,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6293,28 +6293,28 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -6335,33 +6335,33 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H97" t="n">
+        <v>10</v>
+      </c>
+      <c r="I97" t="n">
+        <v>8</v>
+      </c>
+      <c r="J97" t="n">
         <v>3</v>
       </c>
-      <c r="I97" t="n">
-        <v>3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
       <c r="K97" t="n">
         <v>0</v>
       </c>
@@ -6369,13 +6369,13 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
@@ -6396,47 +6396,47 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
@@ -6457,32 +6457,32 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -6491,13 +6491,13 @@
         <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
@@ -6518,47 +6518,47 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O100" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
@@ -6579,17 +6579,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6598,17 +6598,17 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
         <v>3</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
       <c r="L101" t="n">
         <v>0</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -6640,17 +6640,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6659,16 +6659,16 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I102" t="n">
         <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -6677,10 +6677,10 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
@@ -6701,12 +6701,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -6716,32 +6716,32 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
@@ -6762,32 +6762,32 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -6799,10 +6799,10 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105">
@@ -6823,33 +6823,33 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I105" t="n">
+        <v>5</v>
+      </c>
+      <c r="J105" t="n">
         <v>3</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
       <c r="K105" t="n">
         <v>0</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
@@ -6884,47 +6884,47 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O106" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
@@ -6945,47 +6945,47 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
@@ -7006,17 +7006,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7025,14 +7025,14 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I108" t="n">
+        <v>4</v>
+      </c>
+      <c r="J108" t="n">
         <v>3</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
       <c r="K108" t="n">
         <v>1</v>
       </c>
@@ -7040,13 +7040,13 @@
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
@@ -7067,47 +7067,47 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
@@ -7128,17 +7128,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J110" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -7189,17 +7189,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7208,16 +7208,16 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -7250,17 +7250,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -7269,28 +7269,28 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O112" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
@@ -7311,17 +7311,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -7330,10 +7330,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -7345,13 +7345,13 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O113" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
@@ -7372,17 +7372,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -7391,13 +7391,13 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -7406,13 +7406,13 @@
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
@@ -7433,32 +7433,32 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Simon Walker</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>1</v>
       </c>
       <c r="O115" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
@@ -7494,17 +7494,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -7513,16 +7513,16 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116" t="n">
         <v>0</v>
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
@@ -7555,17 +7555,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7574,28 +7574,28 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -7635,13 +7635,13 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="O118" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
@@ -7677,17 +7677,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7696,13 +7696,13 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K119" t="n">
         <v>1</v>
@@ -7714,10 +7714,10 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O119" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
@@ -7738,17 +7738,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7757,13 +7757,13 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J120" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -7772,13 +7772,13 @@
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
@@ -7799,17 +7799,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -7818,10 +7818,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
@@ -7860,17 +7860,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -7879,7 +7879,7 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -7891,16 +7891,16 @@
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -7921,32 +7921,32 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -7958,10 +7958,10 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O123" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
@@ -7982,32 +7982,32 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -8016,13 +8016,13 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -8058,20 +8058,20 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -8080,10 +8080,10 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O125" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126">
@@ -8104,17 +8104,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8123,19 +8123,19 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127">
@@ -8165,35 +8165,35 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>3:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -8202,10 +8202,10 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
@@ -8226,46 +8226,1205 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>SC@AUB</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TEX</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>2</v>
+      </c>
+      <c r="O129" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Kam Williams</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Kareem Stagg</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>ARK@UGA</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>FLA@VAN</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+      <c r="O133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Sebastian Mack</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Simon Walker</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>SC@AUB</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+      <c r="O135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Annor Boateng</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+      <c r="O138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>ARK@UGA</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+      <c r="O139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Kezza Giffa</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>MISS@MSST</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>MISS@MSST</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2</v>
+      </c>
+      <c r="J142" t="n">
+        <v>5</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Christ Essandoko</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>SC@AUB</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2</v>
+      </c>
+      <c r="O145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Troy Henderson</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>Mazi Mosley</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>LSU</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>MIZ@LSU</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H128" t="n">
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
         <v>-3</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0</v>
-      </c>
-      <c r="O128" t="n">
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8313,11 +9472,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -8326,11 +9485,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -8339,11 +9498,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -8356,7 +9515,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -8365,11 +9524,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -8378,14 +9537,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -8395,7 +9554,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
